--- a/Table_S1_TF_mutant-alleles.xlsx
+++ b/Table_S1_TF_mutant-alleles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikaellison/Library/Mobile Documents/com~apple~CloudDocs/Documents/umn.pmb/SpringerLab/manuscripts/grn_ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964244A0-50B9-C543-BD7C-B537706F527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F5F8D-A18F-E94C-9A33-8A61B935CAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="500" windowWidth="38200" windowHeight="27400" xr2:uid="{8EE8B437-4F4F-ED45-B24D-628A594ABC8C}"/>
+    <workbookView xWindow="18340" yWindow="500" windowWidth="38200" windowHeight="27400" xr2:uid="{8EE8B437-4F4F-ED45-B24D-628A594ABC8C}"/>
   </bookViews>
   <sheets>
     <sheet name="TF_UniformMu_Mutant_Alleles" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="181">
   <si>
     <t xml:space="preserve">Gene Normalized Read Count </t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>GCN</t>
+  </si>
+  <si>
+    <t>GCN/Y1H</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1112,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1119,7 +1122,8 @@
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="7" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="5" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" style="5" customWidth="1"/>
@@ -2016,382 +2020,382 @@
       <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="A16" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="11" t="s">
+      <c r="I16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="14">
-        <v>3.1496049955403498</v>
-      </c>
-      <c r="L16" s="15">
-        <v>5.7700763518299301</v>
-      </c>
-      <c r="M16" s="11">
-        <v>3</v>
-      </c>
-      <c r="N16" s="15">
-        <v>4.8559098711834903</v>
-      </c>
-      <c r="O16" s="15">
-        <v>8.8960268840081493</v>
-      </c>
-      <c r="P16" s="11">
+      <c r="K16" s="34">
+        <v>0.38359248840189802</v>
+      </c>
+      <c r="L16" s="35">
+        <v>0.71808513828835296</v>
+      </c>
+      <c r="M16" s="30">
+        <v>2</v>
+      </c>
+      <c r="N16" s="35">
+        <v>6.5885697874968603</v>
+      </c>
+      <c r="O16" s="35">
+        <v>12.333802642194099</v>
+      </c>
+      <c r="P16" s="30">
         <v>4</v>
       </c>
-      <c r="Q16" s="16">
-        <v>-0.60660953799999995</v>
-      </c>
-      <c r="R16" s="16">
-        <v>0.15879612800000001</v>
-      </c>
-      <c r="S16" s="17">
-        <v>3.6220459999999999E-3</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>30</v>
+      <c r="Q16" s="36">
+        <v>-4.071606214</v>
+      </c>
+      <c r="R16" s="36">
+        <v>0.35487849199999999</v>
+      </c>
+      <c r="S16" s="37">
+        <v>4.8299999999999996E-28</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
     </row>
     <row r="17" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="A17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="30" t="s">
+      <c r="I17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="34">
-        <v>0.38359248840189802</v>
-      </c>
-      <c r="L17" s="35">
-        <v>0.71808513828835296</v>
-      </c>
-      <c r="M17" s="30">
-        <v>2</v>
-      </c>
-      <c r="N17" s="35">
-        <v>6.5885697874968603</v>
-      </c>
-      <c r="O17" s="35">
-        <v>12.333802642194099</v>
-      </c>
-      <c r="P17" s="30">
+      <c r="K17" s="14">
+        <v>31.244398985096399</v>
+      </c>
+      <c r="L17" s="15">
+        <v>45.523089321285497</v>
+      </c>
+      <c r="M17" s="11">
+        <v>3</v>
+      </c>
+      <c r="N17" s="15">
+        <v>63.509100029968401</v>
+      </c>
+      <c r="O17" s="15">
+        <v>92.532758743664004</v>
+      </c>
+      <c r="P17" s="11">
         <v>4</v>
       </c>
-      <c r="Q17" s="36">
-        <v>-4.071606214</v>
-      </c>
-      <c r="R17" s="36">
-        <v>0.35487849199999999</v>
-      </c>
-      <c r="S17" s="37">
-        <v>4.8299999999999996E-28</v>
-      </c>
-      <c r="T17" s="30" t="s">
-        <v>64</v>
+      <c r="Q17" s="16">
+        <v>-0.98907416199999998</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0.110169594</v>
+      </c>
+      <c r="S17" s="17">
+        <v>4.0300000000000003E-17</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
     </row>
     <row r="18" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="A18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="30" t="s">
+      <c r="G18" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="34">
-        <v>32.492082347555503</v>
-      </c>
-      <c r="L18" s="35">
-        <v>54.099317108679898</v>
-      </c>
-      <c r="M18" s="30">
-        <v>3</v>
-      </c>
-      <c r="N18" s="35">
-        <v>78.363496465526197</v>
-      </c>
-      <c r="O18" s="35">
-        <v>130.47522161510099</v>
-      </c>
-      <c r="P18" s="30">
+      <c r="K18" s="14">
+        <v>0.70509974287796995</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0.88772057628336498</v>
+      </c>
+      <c r="M18" s="11">
+        <v>3</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0.48620468985133802</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0.61213170452283405</v>
+      </c>
+      <c r="P18" s="11">
         <v>4</v>
       </c>
-      <c r="Q18" s="36">
-        <v>-1.2657875270000001</v>
-      </c>
-      <c r="R18" s="36">
-        <v>0.14177236800000001</v>
-      </c>
-      <c r="S18" s="37">
-        <v>4.0600000000000003E-17</v>
-      </c>
-      <c r="T18" s="30" t="s">
-        <v>64</v>
+      <c r="Q18" s="16">
+        <v>0.51416141900000001</v>
+      </c>
+      <c r="R18" s="16">
+        <v>0.69173341099999996</v>
+      </c>
+      <c r="S18" s="17">
+        <v>0.63301418300000001</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
     </row>
     <row r="19" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="A19" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="G19" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="11" t="s">
+      <c r="I19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="14">
-        <v>31.244398985096399</v>
-      </c>
-      <c r="L19" s="15">
-        <v>45.523089321285497</v>
-      </c>
-      <c r="M19" s="11">
-        <v>3</v>
-      </c>
-      <c r="N19" s="15">
-        <v>63.509100029968401</v>
-      </c>
-      <c r="O19" s="15">
-        <v>92.532758743664004</v>
-      </c>
-      <c r="P19" s="11">
+      <c r="K19" s="34">
+        <v>1.50156674536763E-2</v>
+      </c>
+      <c r="L19" s="35">
+        <v>3.5451990858129702E-2</v>
+      </c>
+      <c r="M19" s="30">
+        <v>3</v>
+      </c>
+      <c r="N19" s="35">
+        <v>0.204104581247982</v>
+      </c>
+      <c r="O19" s="35">
+        <v>0.48189091632648701</v>
+      </c>
+      <c r="P19" s="30">
         <v>4</v>
       </c>
-      <c r="Q19" s="16">
-        <v>-0.98907416199999998</v>
-      </c>
-      <c r="R19" s="16">
-        <v>0.110169594</v>
-      </c>
-      <c r="S19" s="17">
-        <v>4.0300000000000003E-17</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>30</v>
+      <c r="Q19" s="36">
+        <v>-3.7484944929999999</v>
+      </c>
+      <c r="R19" s="36">
+        <v>1.244930471</v>
+      </c>
+      <c r="S19" s="37">
+        <v>1.5785981000000001E-2</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
     </row>
     <row r="20" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="30" t="s">
+      <c r="A20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="30" t="s">
+      <c r="G20" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="34">
-        <v>5.3952615181130801</v>
-      </c>
-      <c r="L20" s="35">
-        <v>7.6882476633111398</v>
-      </c>
-      <c r="M20" s="30">
-        <v>3</v>
-      </c>
-      <c r="N20" s="35">
-        <v>1.98331586235841</v>
-      </c>
-      <c r="O20" s="35">
-        <v>2.82622510386074</v>
-      </c>
-      <c r="P20" s="30">
+      <c r="K20" s="14">
+        <v>0.14449681318056501</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0.34115697591931499</v>
+      </c>
+      <c r="M20" s="11">
+        <v>3</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0.204104581247982</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0.48189091632648701</v>
+      </c>
+      <c r="P20" s="11">
         <v>4</v>
       </c>
-      <c r="Q20" s="36">
-        <v>1.372947462</v>
-      </c>
-      <c r="R20" s="36">
-        <v>0.28964505000000002</v>
-      </c>
-      <c r="S20" s="37">
-        <v>2.9E-5</v>
-      </c>
-      <c r="T20" s="30" t="s">
-        <v>88</v>
+      <c r="Q20" s="16">
+        <v>-0.47913980699999997</v>
+      </c>
+      <c r="R20" s="16">
+        <v>0.771504458</v>
+      </c>
+      <c r="S20" s="17">
+        <v>0.72818298699999995</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
     </row>
     <row r="21" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>89</v>
+      <c r="A21" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>56</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="14">
-        <v>0.70509974287796995</v>
+        <v>1.22810105158097</v>
       </c>
       <c r="L21" s="15">
-        <v>0.88772057628336498</v>
+        <v>2.2056694886394301</v>
       </c>
       <c r="M21" s="11">
         <v>3</v>
       </c>
       <c r="N21" s="15">
-        <v>0.48620468985133802</v>
+        <v>1.2751784974092999</v>
       </c>
       <c r="O21" s="15">
-        <v>0.61213170452283405</v>
+        <v>2.2902205813470999</v>
       </c>
       <c r="P21" s="11">
         <v>4</v>
       </c>
       <c r="Q21" s="16">
-        <v>0.51416141900000001</v>
+        <v>-5.9296659000000002E-2</v>
       </c>
       <c r="R21" s="16">
-        <v>0.69173341099999996</v>
+        <v>0.25832290400000002</v>
       </c>
       <c r="S21" s="17">
-        <v>0.63301418300000001</v>
+        <v>0.98609410099999995</v>
       </c>
       <c r="T21" s="11" t="s">
         <v>30</v>
@@ -2400,84 +2404,84 @@
       <c r="V21" s="11"/>
     </row>
     <row r="22" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="A22" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="14">
-        <v>17.7795602688218</v>
-      </c>
-      <c r="L22" s="15">
-        <v>32.749950015169802</v>
-      </c>
-      <c r="M22" s="11">
-        <v>3</v>
-      </c>
-      <c r="N22" s="15">
-        <v>15.109911203886799</v>
-      </c>
-      <c r="O22" s="15">
-        <v>27.8324564375595</v>
-      </c>
-      <c r="P22" s="11">
+      <c r="K22" s="34">
+        <v>4.3971634903580199</v>
+      </c>
+      <c r="L22" s="35">
+        <v>7.1893623067353598</v>
+      </c>
+      <c r="M22" s="30">
+        <v>3</v>
+      </c>
+      <c r="N22" s="35">
+        <v>21.013773655165998</v>
+      </c>
+      <c r="O22" s="35">
+        <v>34.357519926196503</v>
+      </c>
+      <c r="P22" s="30">
         <v>4</v>
       </c>
-      <c r="Q22" s="16">
-        <v>0.20058387599999999</v>
-      </c>
-      <c r="R22" s="16">
-        <v>0.16823885099999999</v>
-      </c>
-      <c r="S22" s="17">
-        <v>0.44145084699999998</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>30</v>
+      <c r="Q22" s="36">
+        <v>-2.2974426970000001</v>
+      </c>
+      <c r="R22" s="36">
+        <v>0.261947555</v>
+      </c>
+      <c r="S22" s="37">
+        <v>8.0399999999999997E-17</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
     </row>
     <row r="23" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>34</v>
@@ -2489,37 +2493,37 @@
         <v>56</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K23" s="14">
-        <v>15.170938189427901</v>
+        <v>3.1496049955403498</v>
       </c>
       <c r="L23" s="15">
-        <v>27.9448681449263</v>
+        <v>5.7700763518299301</v>
       </c>
       <c r="M23" s="11">
         <v>3</v>
       </c>
       <c r="N23" s="15">
-        <v>15.109911203886799</v>
+        <v>4.8559098711834903</v>
       </c>
       <c r="O23" s="15">
-        <v>27.8324564375595</v>
+        <v>8.8960268840081493</v>
       </c>
       <c r="P23" s="11">
         <v>4</v>
       </c>
       <c r="Q23" s="16">
-        <v>-2.5109887000000001E-2</v>
+        <v>-0.60660953799999995</v>
       </c>
       <c r="R23" s="16">
-        <v>0.168793631</v>
+        <v>0.15879612800000001</v>
       </c>
       <c r="S23" s="17">
-        <v>0.93600811399999995</v>
+        <v>3.6220459999999999E-3</v>
       </c>
       <c r="T23" s="11" t="s">
         <v>30</v>
@@ -2528,20 +2532,20 @@
       <c r="V23" s="11"/>
     </row>
     <row r="24" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="30" t="s">
-        <v>112</v>
+      <c r="A24" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>34</v>
@@ -2550,7 +2554,7 @@
         <v>179</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I24" s="30" t="s">
         <v>36</v>
@@ -2559,31 +2563,31 @@
         <v>29</v>
       </c>
       <c r="K24" s="34">
-        <v>1.50156674536763E-2</v>
+        <v>32.492082347555503</v>
       </c>
       <c r="L24" s="35">
-        <v>3.5451990858129702E-2</v>
+        <v>54.099317108679898</v>
       </c>
       <c r="M24" s="30">
         <v>3</v>
       </c>
       <c r="N24" s="35">
-        <v>0.204104581247982</v>
+        <v>78.363496465526197</v>
       </c>
       <c r="O24" s="35">
-        <v>0.48189091632648701</v>
+        <v>130.47522161510099</v>
       </c>
       <c r="P24" s="30">
         <v>4</v>
       </c>
       <c r="Q24" s="36">
-        <v>-3.7484944929999999</v>
+        <v>-1.2657875270000001</v>
       </c>
       <c r="R24" s="36">
-        <v>1.244930471</v>
+        <v>0.14177236800000001</v>
       </c>
       <c r="S24" s="37">
-        <v>1.5785981000000001E-2</v>
+        <v>4.0600000000000003E-17</v>
       </c>
       <c r="T24" s="30" t="s">
         <v>64</v>
@@ -2592,340 +2596,340 @@
       <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="A25" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="11" t="s">
+      <c r="H25" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="14">
-        <v>0.14449681318056501</v>
-      </c>
-      <c r="L25" s="15">
-        <v>0.34115697591931499</v>
-      </c>
-      <c r="M25" s="11">
-        <v>3</v>
-      </c>
-      <c r="N25" s="15">
-        <v>0.204104581247982</v>
-      </c>
-      <c r="O25" s="15">
-        <v>0.48189091632648701</v>
-      </c>
-      <c r="P25" s="11">
+      <c r="K25" s="34">
+        <v>5.3952615181130801</v>
+      </c>
+      <c r="L25" s="35">
+        <v>7.6882476633111398</v>
+      </c>
+      <c r="M25" s="30">
+        <v>3</v>
+      </c>
+      <c r="N25" s="35">
+        <v>1.98331586235841</v>
+      </c>
+      <c r="O25" s="35">
+        <v>2.82622510386074</v>
+      </c>
+      <c r="P25" s="30">
         <v>4</v>
       </c>
-      <c r="Q25" s="16">
-        <v>-0.47913980699999997</v>
-      </c>
-      <c r="R25" s="16">
-        <v>0.771504458</v>
-      </c>
-      <c r="S25" s="17">
-        <v>0.72818298699999995</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>30</v>
+      <c r="Q25" s="36">
+        <v>1.372947462</v>
+      </c>
+      <c r="R25" s="36">
+        <v>0.28964505000000002</v>
+      </c>
+      <c r="S25" s="37">
+        <v>2.9E-5</v>
+      </c>
+      <c r="T25" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
     </row>
     <row r="26" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="30" t="s">
+      <c r="A26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="34">
-        <v>4.5571248208756598</v>
-      </c>
-      <c r="L26" s="35">
-        <v>14.291143438265999</v>
-      </c>
-      <c r="M26" s="30">
-        <v>3</v>
-      </c>
-      <c r="N26" s="35">
-        <v>19.423984897777999</v>
-      </c>
-      <c r="O26" s="35">
-        <v>60.913616639431801</v>
-      </c>
-      <c r="P26" s="30">
+      <c r="K26" s="14">
+        <v>17.7795602688218</v>
+      </c>
+      <c r="L26" s="15">
+        <v>32.749950015169802</v>
+      </c>
+      <c r="M26" s="11">
+        <v>3</v>
+      </c>
+      <c r="N26" s="15">
+        <v>15.109911203886799</v>
+      </c>
+      <c r="O26" s="15">
+        <v>27.8324564375595</v>
+      </c>
+      <c r="P26" s="11">
         <v>4</v>
       </c>
-      <c r="Q26" s="36">
-        <v>-2.0748303730000002</v>
-      </c>
-      <c r="R26" s="36">
-        <v>0.12867943800000001</v>
-      </c>
-      <c r="S26" s="37">
-        <v>1.6400000000000001E-55</v>
-      </c>
-      <c r="T26" s="30" t="s">
-        <v>64</v>
+      <c r="Q26" s="16">
+        <v>0.20058387599999999</v>
+      </c>
+      <c r="R26" s="16">
+        <v>0.16823885099999999</v>
+      </c>
+      <c r="S26" s="17">
+        <v>0.44145084699999998</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="A27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="30" t="s">
+      <c r="H27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="34">
-        <v>37.422559686347697</v>
-      </c>
-      <c r="L27" s="35">
-        <v>61.185885087178498</v>
-      </c>
-      <c r="M27" s="30">
-        <v>3</v>
-      </c>
-      <c r="N27" s="35">
-        <v>86.661031698003299</v>
-      </c>
-      <c r="O27" s="35">
-        <v>141.69078682623501</v>
-      </c>
-      <c r="P27" s="30">
+      <c r="K27" s="14">
+        <v>15.170938189427901</v>
+      </c>
+      <c r="L27" s="15">
+        <v>27.9448681449263</v>
+      </c>
+      <c r="M27" s="11">
+        <v>3</v>
+      </c>
+      <c r="N27" s="15">
+        <v>15.109911203886799</v>
+      </c>
+      <c r="O27" s="15">
+        <v>27.8324564375595</v>
+      </c>
+      <c r="P27" s="11">
         <v>4</v>
       </c>
-      <c r="Q27" s="36">
-        <v>-1.1870645719999999</v>
-      </c>
-      <c r="R27" s="36">
-        <v>8.3104571000000002E-2</v>
-      </c>
-      <c r="S27" s="37">
-        <v>2.06E-43</v>
-      </c>
-      <c r="T27" s="30" t="s">
-        <v>64</v>
+      <c r="Q27" s="16">
+        <v>-2.5109887000000001E-2</v>
+      </c>
+      <c r="R27" s="16">
+        <v>0.168793631</v>
+      </c>
+      <c r="S27" s="17">
+        <v>0.93600811399999995</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
     </row>
     <row r="28" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="A28" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="14">
-        <v>3.5511541837927099</v>
-      </c>
-      <c r="L28" s="15">
-        <v>9.3892516619479398</v>
-      </c>
-      <c r="M28" s="11">
-        <v>3</v>
-      </c>
-      <c r="N28" s="15">
-        <v>5.3051939821280802</v>
-      </c>
-      <c r="O28" s="15">
-        <v>14.0269328887466</v>
-      </c>
-      <c r="P28" s="11">
+      <c r="K28" s="34">
+        <v>4.5571248208756598</v>
+      </c>
+      <c r="L28" s="35">
+        <v>14.291143438265999</v>
+      </c>
+      <c r="M28" s="30">
+        <v>3</v>
+      </c>
+      <c r="N28" s="35">
+        <v>19.423984897777999</v>
+      </c>
+      <c r="O28" s="35">
+        <v>60.913616639431801</v>
+      </c>
+      <c r="P28" s="30">
         <v>4</v>
       </c>
-      <c r="Q28" s="16">
-        <v>-0.61981516599999997</v>
-      </c>
-      <c r="R28" s="16">
-        <v>0.160401934</v>
-      </c>
-      <c r="S28" s="17">
-        <v>8.0800000000000002E-4</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>30</v>
+      <c r="Q28" s="36">
+        <v>-2.0748303730000002</v>
+      </c>
+      <c r="R28" s="36">
+        <v>0.12867943800000001</v>
+      </c>
+      <c r="S28" s="37">
+        <v>1.6400000000000001E-55</v>
+      </c>
+      <c r="T28" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
     </row>
     <row r="29" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="A29" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="11" t="s">
+      <c r="I29" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K29" s="14">
-        <v>5.6335882052631101</v>
-      </c>
-      <c r="L29" s="15">
-        <v>14.895207214715599</v>
-      </c>
-      <c r="M29" s="11">
-        <v>3</v>
-      </c>
-      <c r="N29" s="15">
-        <v>5.3051939821280802</v>
-      </c>
-      <c r="O29" s="15">
-        <v>14.0269328887466</v>
-      </c>
-      <c r="P29" s="11">
+      <c r="K29" s="34">
+        <v>37.422559686347697</v>
+      </c>
+      <c r="L29" s="35">
+        <v>61.185885087178498</v>
+      </c>
+      <c r="M29" s="30">
+        <v>3</v>
+      </c>
+      <c r="N29" s="35">
+        <v>86.661031698003299</v>
+      </c>
+      <c r="O29" s="35">
+        <v>141.69078682623501</v>
+      </c>
+      <c r="P29" s="30">
         <v>4</v>
       </c>
-      <c r="Q29" s="16">
-        <v>6.5099215000000002E-2</v>
-      </c>
-      <c r="R29" s="16">
-        <v>0.15981815499999999</v>
-      </c>
-      <c r="S29" s="17">
-        <v>0.82448232600000004</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>30</v>
+      <c r="Q29" s="36">
+        <v>-1.1870645719999999</v>
+      </c>
+      <c r="R29" s="36">
+        <v>8.3104571000000002E-2</v>
+      </c>
+      <c r="S29" s="37">
+        <v>2.06E-43</v>
+      </c>
+      <c r="T29" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
     </row>
     <row r="30" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>34</v>
@@ -2937,37 +2941,37 @@
         <v>56</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K30" s="14">
-        <v>1.22810105158097</v>
+        <v>3.5511541837927099</v>
       </c>
       <c r="L30" s="15">
-        <v>2.2056694886394301</v>
+        <v>9.3892516619479398</v>
       </c>
       <c r="M30" s="11">
         <v>3</v>
       </c>
       <c r="N30" s="15">
-        <v>1.2751784974092999</v>
+        <v>5.3051939821280802</v>
       </c>
       <c r="O30" s="15">
-        <v>2.2902205813470999</v>
+        <v>14.0269328887466</v>
       </c>
       <c r="P30" s="11">
         <v>4</v>
       </c>
       <c r="Q30" s="16">
-        <v>-5.9296659000000002E-2</v>
+        <v>-0.61981516599999997</v>
       </c>
       <c r="R30" s="16">
-        <v>0.25832290400000002</v>
+        <v>0.160401934</v>
       </c>
       <c r="S30" s="17">
-        <v>0.98609410099999995</v>
+        <v>8.0800000000000002E-4</v>
       </c>
       <c r="T30" s="11" t="s">
         <v>30</v>
@@ -2976,193 +2980,193 @@
       <c r="V30" s="11"/>
     </row>
     <row r="31" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="30" t="s">
+      <c r="A31" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="30" t="s">
+      <c r="H31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="34">
-        <v>10.9906964862789</v>
-      </c>
-      <c r="L31" s="35">
-        <v>19.277681636933298</v>
-      </c>
-      <c r="M31" s="30">
-        <v>3</v>
-      </c>
-      <c r="N31" s="35">
-        <v>4.0765218198286703</v>
-      </c>
-      <c r="O31" s="35">
-        <v>7.1502192719794904</v>
-      </c>
-      <c r="P31" s="30">
+      <c r="K31" s="14">
+        <v>5.6335882052631101</v>
+      </c>
+      <c r="L31" s="15">
+        <v>14.895207214715599</v>
+      </c>
+      <c r="M31" s="11">
+        <v>3</v>
+      </c>
+      <c r="N31" s="15">
+        <v>5.3051939821280802</v>
+      </c>
+      <c r="O31" s="15">
+        <v>14.0269328887466</v>
+      </c>
+      <c r="P31" s="11">
         <v>4</v>
       </c>
-      <c r="Q31" s="36">
-        <v>1.452153566</v>
-      </c>
-      <c r="R31" s="36">
-        <v>0.29492212099999998</v>
-      </c>
-      <c r="S31" s="37">
-        <v>2.4000000000000001E-5</v>
-      </c>
-      <c r="T31" s="30" t="s">
-        <v>88</v>
+      <c r="Q31" s="16">
+        <v>6.5099215000000002E-2</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0.15981815499999999</v>
+      </c>
+      <c r="S31" s="17">
+        <v>0.82448232600000004</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
     </row>
     <row r="32" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="C32" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="14">
-        <v>3.0664465443742599</v>
-      </c>
-      <c r="L32" s="15">
-        <v>5.3785472388324598</v>
-      </c>
-      <c r="M32" s="11">
-        <v>3</v>
-      </c>
-      <c r="N32" s="15">
+      <c r="K32" s="34">
+        <v>10.9906964862789</v>
+      </c>
+      <c r="L32" s="35">
+        <v>19.277681636933298</v>
+      </c>
+      <c r="M32" s="30">
+        <v>3</v>
+      </c>
+      <c r="N32" s="35">
         <v>4.0765218198286703</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="35">
         <v>7.1502192719794904</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="30">
         <v>4</v>
       </c>
-      <c r="Q32" s="16">
-        <v>-0.33020429499999998</v>
-      </c>
-      <c r="R32" s="16">
-        <v>0.30085897299999997</v>
-      </c>
-      <c r="S32" s="17">
-        <v>0.51222157099999999</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>30</v>
+      <c r="Q32" s="36">
+        <v>1.452153566</v>
+      </c>
+      <c r="R32" s="36">
+        <v>0.29492212099999998</v>
+      </c>
+      <c r="S32" s="37">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="T32" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
     </row>
     <row r="33" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="30" t="s">
+      <c r="A33" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="30" t="s">
+      <c r="J33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="34">
-        <v>4.3971634903580199</v>
-      </c>
-      <c r="L33" s="35">
-        <v>7.1893623067353598</v>
-      </c>
-      <c r="M33" s="30">
-        <v>3</v>
-      </c>
-      <c r="N33" s="35">
-        <v>21.013773655165998</v>
-      </c>
-      <c r="O33" s="35">
-        <v>34.357519926196503</v>
-      </c>
-      <c r="P33" s="30">
+      <c r="K33" s="14">
+        <v>3.0664465443742599</v>
+      </c>
+      <c r="L33" s="15">
+        <v>5.3785472388324598</v>
+      </c>
+      <c r="M33" s="11">
+        <v>3</v>
+      </c>
+      <c r="N33" s="15">
+        <v>4.0765218198286703</v>
+      </c>
+      <c r="O33" s="15">
+        <v>7.1502192719794904</v>
+      </c>
+      <c r="P33" s="11">
         <v>4</v>
       </c>
-      <c r="Q33" s="36">
-        <v>-2.2974426970000001</v>
-      </c>
-      <c r="R33" s="36">
-        <v>0.261947555</v>
-      </c>
-      <c r="S33" s="37">
-        <v>8.0399999999999997E-17</v>
-      </c>
-      <c r="T33" s="30" t="s">
-        <v>64</v>
+      <c r="Q33" s="16">
+        <v>-0.33020429499999998</v>
+      </c>
+      <c r="R33" s="16">
+        <v>0.30085897299999997</v>
+      </c>
+      <c r="S33" s="17">
+        <v>0.51222157099999999</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
@@ -3296,8 +3300,9 @@
       <c r="V35" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:V35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:T35">
     <sortCondition descending="1" ref="G4:G35"/>
+    <sortCondition ref="C4:C35"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="K1:P1"/>
